--- a/dados_ini_Estrutura.xlsx
+++ b/dados_ini_Estrutura.xlsx
@@ -724,7 +724,11 @@
     <row r="10">
       <c r="A10" t="inlineStr"/>
       <c r="B10" t="inlineStr"/>
-      <c r="C10" t="inlineStr"/>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>francineo</t>
+        </is>
+      </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr"/>
       <c r="F10" t="inlineStr">
